--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/6/Distribución de Probabilidades.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/6/Distribución de Probabilidades.xlsx
@@ -3,17 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50495026-9968-4E34-814A-680A430E5C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA72E9A-2781-4729-8D5F-C0DF00AF16C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distr. Probabilidad" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="8" r:id="rId3"/>
-    <sheet name="Ejercicio de revisión Binomial" sheetId="2" r:id="rId4"/>
-    <sheet name="Ejercicio de revisión Poisson" sheetId="3" r:id="rId5"/>
-    <sheet name="Ejercicio revisión Normal" sheetId="4" r:id="rId6"/>
+    <sheet name="Hoja6" sheetId="13" r:id="rId2"/>
+    <sheet name="Hoja5" sheetId="12" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="8" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="11" r:id="rId7"/>
+    <sheet name="Ejercicio de revisión Binomial" sheetId="2" r:id="rId8"/>
+    <sheet name="Ejercicio de revisión Poisson" sheetId="3" r:id="rId9"/>
+    <sheet name="Ejercicio revisión Normal" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Ejemplo Pag. 23 Tomo II</t>
   </si>
@@ -170,17 +174,21 @@
   <si>
     <t>Ejemplo Pag. 76 Tomo II</t>
   </si>
+  <si>
+    <t>1auto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -300,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -372,6 +380,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AG31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,38 +694,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="12"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
     </row>
     <row r="3" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
@@ -941,11 +950,11 @@
         <v>0.63055865981823644</v>
       </c>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="34">
+      <c r="AD7" s="35">
         <f>AE6-AD6</f>
         <v>0.65629624272720921</v>
       </c>
-      <c r="AE7" s="34"/>
+      <c r="AE7" s="35"/>
     </row>
     <row r="8" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
@@ -1055,11 +1064,11 @@
         <v>0.18473675547622792</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P12" si="3">_xlfn.POISSON.DIST(S9,$Q$4,0)</f>
+        <f>_xlfn.POISSON.DIST(S9,$Q$4,0)</f>
         <v>0.14936120510359185</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:Q11" si="4">_xlfn.POISSON.DIST(T9,$Q$5,0)</f>
+        <f t="shared" ref="Q9:Q10" si="3">_xlfn.POISSON.DIST(T9,$Q$5,0)</f>
         <v>0.10243586666453419</v>
       </c>
       <c r="S9" s="4">
@@ -1096,7 +1105,7 @@
         <v>5.7648009999999972E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F14" si="5">_xlfn.BINOM.DIST(J10,8,0.3,0)</f>
+        <f t="shared" ref="F10:F14" si="4">_xlfn.BINOM.DIST(J10,8,0.3,0)</f>
         <v>0.1361367</v>
       </c>
       <c r="G10">
@@ -1123,11 +1132,11 @@
         <v>0.38564090979589344</v>
       </c>
       <c r="P10">
+        <f>_xlfn.POISSON.DIST(S10,$Q$4,0)</f>
+        <v>0.22404180765538775</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="3"/>
-        <v>0.22404180765538775</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="4"/>
         <v>9.6033624998000819E-2</v>
       </c>
       <c r="S10" s="4">
@@ -1153,7 +1162,7 @@
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.25">
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.6675439999999992E-2</v>
       </c>
       <c r="G11">
@@ -1169,11 +1178,11 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f>_xlfn.POISSON.DIST(S11,$Q$4,0)</f>
         <v>0.22404180765538778</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f>_xlfn.POISSON.DIST(T11,$Q$5,0)</f>
         <v>8.4735551468824222E-2</v>
       </c>
       <c r="S11" s="4">
@@ -1195,7 +1204,7 @@
     </row>
     <row r="12" spans="3:33" x14ac:dyDescent="0.25">
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.0001879999999999E-2</v>
       </c>
       <c r="I12" s="3"/>
@@ -1203,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f>_xlfn.POISSON.DIST(S12,$Q$4,0)</f>
         <v>0.16803135574154085</v>
       </c>
       <c r="S12" s="4">
@@ -1221,7 +1230,7 @@
     </row>
     <row r="13" spans="3:33" x14ac:dyDescent="0.25">
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.224719999999999E-3</v>
       </c>
       <c r="I13" s="3"/>
@@ -1239,7 +1248,7 @@
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.5609999999999936E-5</v>
       </c>
       <c r="G14" s="1"/>
@@ -1327,16 +1336,16 @@
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
       <c r="S21" s="28">
         <v>13</v>
       </c>
@@ -1373,6 +1382,9 @@
       </c>
       <c r="E25" s="4">
         <v>0.4</v>
+      </c>
+      <c r="H25">
+        <v>0.3</v>
       </c>
       <c r="J25" s="5"/>
     </row>
@@ -1419,11 +1431,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:L9"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>30</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <f>E6</f>
+        <v>0.18703139874544128</v>
+      </c>
+      <c r="D5" s="29">
+        <f>C5</f>
+        <v>0.18703139874544128</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.NORM.DIST(34,G2,I2,1)</f>
+        <v>0.81296860125455872</v>
+      </c>
+      <c r="F5">
+        <f>_xlfn.NORM.DIST(32,G2,I2,1)</f>
+        <v>0.67163935671811481</v>
+      </c>
+      <c r="G5" s="3">
+        <f>_xlfn.NORM.DIST(26.8,G2,I2,1)</f>
+        <v>0.23850769258813076</v>
+      </c>
+      <c r="H5" s="3">
+        <f>NORMINV(0.22,G2,I2)</f>
+        <v>26.525130536150918</v>
+      </c>
+      <c r="I5" s="3">
+        <f>NORMINV(0.35,G2,I2)</f>
+        <v>28.266057901165944</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
+        <f>F5</f>
+        <v>0.67163935671811481</v>
+      </c>
+      <c r="D6" s="29">
+        <f>C6</f>
+        <v>0.67163935671811481</v>
+      </c>
+      <c r="E6" s="9">
+        <f>1-E5</f>
+        <v>0.18703139874544128</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <f>G5</f>
+        <v>0.23850769258813076</v>
+      </c>
+      <c r="D7" s="29">
+        <f>C7</f>
+        <v>0.23850769258813076</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <f>H5</f>
+        <v>26.525130536150918</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <f>I5</f>
+        <v>28.266057901165944</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06287E7B-4C4A-46F3-80D0-B1B400A0432D}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>2.5</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.NORM.DIST(A2,3,2.5,TRUE)</f>
+        <v>0.11506967022170828</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.POISSON.DIST(F2,1,FALSE)</f>
+        <v>7.680129694168931E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.NORM.DIST(A3,3,2.5,TRUE)</f>
+        <v>0.15865525393145699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.NORM.DIST(A4,3,2.5,TRUE)</f>
+        <v>0.21185539858339661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D541AB8B-BE78-4D53-AAB0-7D3094FEEB4B}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4">
+        <v>710</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2" si="0">_xlfn.NORM.DIST(A2,1.5,0.84,TRUE)</f>
+        <v>3.7072765555703414E-2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.NORM.DIST(A3,1.5,0.84,TRUE)</f>
+        <v>0.27584216455807342</v>
+      </c>
+      <c r="D3">
+        <f>B4-B3</f>
+        <v>0.44831567088385316</v>
+      </c>
+      <c r="E3">
+        <f>D3*100</f>
+        <v>44.831567088385313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B5" si="1">_xlfn.NORM.DIST(A4,1.5,0.84,TRUE)</f>
+        <v>0.72415783544192658</v>
+      </c>
+      <c r="C4">
+        <f>1-B4</f>
+        <v>0.27584216455807342</v>
+      </c>
+      <c r="D4">
+        <f>C4*100</f>
+        <v>27.584216455807343</v>
+      </c>
+      <c r="H4">
+        <v>649</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I5" si="2">_xlfn.NORM.DIST(H4,710,40,TRUE)</f>
+        <v>6.3629548829032614E-2</v>
+      </c>
+      <c r="J4" s="30">
+        <f>I4*100</f>
+        <v>6.3629548829032618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0.96292723444429662</v>
+      </c>
+      <c r="C5" s="30">
+        <f>B5*100</f>
+        <v>96.292723444429669</v>
+      </c>
+      <c r="H5">
+        <v>650</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>6.6807201268858057E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>1-B5</f>
+        <v>3.707276555570338E-2</v>
+      </c>
+      <c r="D6">
+        <f>C6*100</f>
+        <v>3.707276555570338</v>
+      </c>
+      <c r="H6">
+        <v>680</v>
+      </c>
+      <c r="I6">
+        <f>_xlfn.NORM.DIST(H6,710,40,TRUE)</f>
+        <v>0.22662735237686821</v>
+      </c>
+      <c r="J6" s="30">
+        <f>I6*100</f>
+        <v>22.662735237686821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>700</v>
+      </c>
+      <c r="I8">
+        <f>_xlfn.NORM.DIST(H8,710,40,TRUE)</f>
+        <v>0.4012936743170763</v>
+      </c>
+      <c r="J8">
+        <f>1-I8</f>
+        <v>0.5987063256829237</v>
+      </c>
+      <c r="K8" s="30">
+        <f>J8*100</f>
+        <v>59.870632568292372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>750</v>
+      </c>
+      <c r="I9">
+        <f>_xlfn.NORM.DIST(H9,710,40,TRUE)</f>
+        <v>0.84134474606854304</v>
+      </c>
+      <c r="J9">
+        <f>I9-I8</f>
+        <v>0.44005107175146674</v>
+      </c>
+      <c r="K9" s="30">
+        <f>J9*100</f>
+        <v>44.005107175146676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623A24E8-3E93-4276-91F8-AC3ADA3B80F2}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1549,12 +1973,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E37C9B-E416-4189-858D-F0CD7B18F65D}">
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2710,1556 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348C9D9B-5F28-4F4A-A00E-60E1D7459151}">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>80</v>
+      </c>
+      <c r="E1">
+        <v>20</v>
+      </c>
+      <c r="J1">
+        <v>15</v>
+      </c>
+      <c r="K1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>0.15</v>
+      </c>
+      <c r="K2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E28" si="0">_xlfn.BINOM.DIST(A3,25,0.2,FALSE)</f>
+        <v>3.7778931862957137E-3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>_xlfn.BINOM.DIST(H3,45,0.85,FALSE)</f>
+        <v>8.3966617312139295E-38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.3611832414348232E-2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K48" si="1">_xlfn.BINOM.DIST(H4,45,0.85,FALSE)</f>
+        <v>2.1411487414595924E-35</v>
+      </c>
+      <c r="L4" s="32">
+        <f>J4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7.0835497243044693E-2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2.6692987643528816E-33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.13576803638250226</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2.1680637741577415E-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.18668105002594063</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.2899979456238454E-29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.19601510252723769</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>5.9941904539988191E-28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.16334591877269808</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.2644719492884501E-26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.11084187345290226</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>7.1492614398965032E-25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6.2348553817257471E-2</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>1.9243428709054554E-23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.9442372635927156E-2</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>4.4830061696278503E-22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.1776949054370864E-2</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>9.1453325860409111E-21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.0148689958082479E-3</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1.6489311783922122E-19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.1710034571107396E-3</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>2.6474506141963816E-18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.9275086427768483E-4</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>3.8082558834978521E-17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>6.2732328059503996E-5</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>4.9325980967211084E-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.1500926810909055E-5</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>5.7766204377155585E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.797019814204539E-6</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>6.1376592150727761E-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.3784085776236518E-7</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>5.9330705745703467E-13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.6426761973596225E-8</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>5.229891839806423E-12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.4340438659891295E-9</v>
+      </c>
+      <c r="H22">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>4.2114392183704761E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.8255328994918413E-10</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>3.102426890866222E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <f>_xlfn.BINOM.DIST(A24,25,0.8,FALSE)</f>
+        <v>0.18668105002594065</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.0866267258879967E-11</v>
+      </c>
+      <c r="H24">
+        <v>21</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>2.0929070295526233E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D28" si="2">_xlfn.BINOM.DIST(A25,25,0.8,FALSE)</f>
+        <v>0.13576803638250229</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.9392123904000137E-13</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1.2937970728143461E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>7.0835497243044734E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.6106127360000013E-14</v>
+      </c>
+      <c r="H26">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>7.3315167459479589E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2.3611832414348253E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3.3554432000000112E-16</v>
+      </c>
+      <c r="H27">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>3.8083156430340848E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>3.7778931862957207E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>3.355443200000004E-18</v>
+      </c>
+      <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1.8127582460842283E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>26</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>7.9017667137004269E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>SUM(D24:D28)</f>
+        <v>0.42067430925213167</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E9:E28)</f>
+        <v>0.38331058822063069</v>
+      </c>
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>3.1509514179323935E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="30">
+        <f>D30*100</f>
+        <v>42.067430925213166</v>
+      </c>
+      <c r="E31" s="30">
+        <f>E30*100</f>
+        <v>38.331058822063071</v>
+      </c>
+      <c r="H31">
+        <v>28</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1.1478465879610887E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>29</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>3.8129616542615475E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f>SUM(E3:E11)</f>
+        <v>0.95322575782222718</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>1.1523617443990482E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="30">
+        <f>E33*100</f>
+        <v>95.322575782222714</v>
+      </c>
+      <c r="H34">
+        <v>31</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>3.1597015572231899E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>32</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>7.8334267772824893E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f>SUM(E3:E28)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H36">
+        <v>33</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>1.7486740583630603E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>34</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>3.4973481167261199E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>35</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>6.2286104555027019E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>9.8042942355135165E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>37</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0.13514027189491598</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>38</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0.16121997348867168</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>39</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0.16397587047138401</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>40</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0.13937948990067639</v>
+      </c>
+      <c r="L43">
+        <f>SUM(K3:K43)</f>
+        <v>0.82518813889482567</v>
+      </c>
+      <c r="M43" s="30">
+        <f>K43*100</f>
+        <v>13.937948990067639</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>41</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>9.631915968745923E-2</v>
+      </c>
+      <c r="L44" s="30">
+        <f>L43*100</f>
+        <v>82.518813889482573</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>42</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>5.1981768720216093E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>2.0550931819620311E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>44</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>5.2934218323264478E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>45</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>6.6657904555221894E-4</v>
+      </c>
+      <c r="L48" s="30">
+        <f>K48*100</f>
+        <v>6.66579045552219E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="30"/>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="33"/>
+      <c r="K53" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3115AE-0E43-4F5C-A0C2-F4F9537B3253}">
+  <dimension ref="A1:AE27"/>
+  <sheetViews>
+    <sheetView topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <v>15</v>
+      </c>
+      <c r="T1">
+        <v>0.15</v>
+      </c>
+      <c r="X1">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.POISSON.DIST(A2,20,FALSE)</f>
+        <v>2.0611536224385579E-9</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J4" si="0">_xlfn.POISSON.DIST(H2,3,FALSE)</f>
+        <v>4.9787068367863944E-2</v>
+      </c>
+      <c r="N2">
+        <f>_xlfn.POISSON.DIST(H2,15,FALSE)</f>
+        <v>3.0590232050182579E-7</v>
+      </c>
+      <c r="S2">
+        <v>85</v>
+      </c>
+      <c r="T2">
+        <v>0.85</v>
+      </c>
+      <c r="W2">
+        <v>15</v>
+      </c>
+      <c r="X2">
+        <f>_xlfn.POISSON.DIST(W2,8,FALSE)</f>
+        <v>9.0259794111215482E-3</v>
+      </c>
+      <c r="Y2">
+        <f>1-X2</f>
+        <v>0.9909740205888784</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>_xlfn.POISSON.DIST(AB2,8,FALSE)</f>
+        <v>3.3546262790251185E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="1">_xlfn.POISSON.DIST(A3,20,FALSE)</f>
+        <v>4.1223072448771152E-8</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.14936120510359185</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="2">_xlfn.POISSON.DIST(H3,15,FALSE)</f>
+        <v>4.5885348075273872E-6</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>_xlfn.BINOM.DIST(R3,10,0.15,FALSE)</f>
+        <v>0.1968744043407227</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC17" si="3">_xlfn.POISSON.DIST(AB3,8,FALSE)</f>
+        <v>2.683701023220094E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>4.1223072448771121E-7</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.22404180765538775</v>
+      </c>
+      <c r="K4">
+        <f>1-J4</f>
+        <v>0.77595819234461227</v>
+      </c>
+      <c r="L4" s="30">
+        <f>K4*100</f>
+        <v>77.595819234461231</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>3.4414011056455447E-5</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S13" si="4">_xlfn.BINOM.DIST(R4,10,0.15,FALSE)</f>
+        <v>0.3474254194248047</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="3"/>
+        <v>1.0734804092880379E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.7482048299180789E-6</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f>_xlfn.POISSON.DIST(H5,3,FALSE)</f>
+        <v>0.22404180765538778</v>
+      </c>
+      <c r="K5" s="30">
+        <f>J5*100</f>
+        <v>22.404180765538779</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.7207005528227688E-4</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>0.27589665660205087</v>
+      </c>
+      <c r="T5">
+        <v>0.1275</v>
+      </c>
+      <c r="U5">
+        <f>T5*100</f>
+        <v>12.75</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="3"/>
+        <v>2.8626144247681014E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.3741024149590403E-5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J11" si="5">_xlfn.POISSON.DIST(H6,3,FALSE)</f>
+        <v>0.16803135574154085</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>6.4526270730853874E-4</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>0.12983372075390626</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>5.7252288495362028E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>5.4964096598361591E-5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0.10081881344492449</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1.9357881219256175E-3</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>4.0095707879882835E-2</v>
+      </c>
+      <c r="T7">
+        <f>SUM(S7:S13)</f>
+        <v>4.9969798878515645E-2</v>
+      </c>
+      <c r="U7" s="31">
+        <f>T7*100</f>
+        <v>4.9969798878515643</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>9.1603661592579252E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1.8321365532787196E-4</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>5.0409406722462261E-2</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J6:J10)</f>
+        <v>0.3489651191560928</v>
+      </c>
+      <c r="L8" s="30">
+        <f>K8*100</f>
+        <v>34.896511915609281</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>4.839470304814038E-3</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>8.4908557863281192E-3</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8:X13" si="6">_xlfn.POISSON.DIST(W8,8,FALSE)</f>
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>0.12213821545677231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>5.2346758665106302E-4</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>2.1604031452483807E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>1.0370293510315797E-2</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>1.2486552626953143E-3</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>2.683701023220094E-3</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>0.13958653195059695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1.3086689666276553E-3</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>8.1015117946814375E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>1.9444300331842138E-2</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>1.2591481640624995E-4</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>1.0734804092880379E-2</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>0.13958653195059695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>2.9081532591725681E-3</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>2.7005039315604771E-3</v>
+      </c>
+      <c r="K11">
+        <f>SUM(J2:J11)</f>
+        <v>0.99889751186988462</v>
+      </c>
+      <c r="L11" s="30">
+        <f>K11*100</f>
+        <v>99.889751186988462</v>
+      </c>
+      <c r="N11">
+        <f>_xlfn.POISSON.DIST(H11,15,FALSE)</f>
+        <v>3.2407167219736882E-2</v>
+      </c>
+      <c r="O11">
+        <f>SUM(N2:N11)</f>
+        <v>6.9853660699409778E-2</v>
+      </c>
+      <c r="P11" s="30">
+        <f>O11*100</f>
+        <v>6.9853660699409774</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>8.3325981445312545E-6</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>2.8626144247681014E-2</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>0.12407691728941951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f>_xlfn.POISSON.DIST(A12,20,FALSE)</f>
+        <v>5.8163065183451353E-3</v>
+      </c>
+      <c r="E12" s="29">
+        <f>C12</f>
+        <v>5.8163065183451353E-3</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>3.267685546874998E-7</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>5.7252288495362028E-2</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="3"/>
+        <v>9.9261533831535603E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C21" si="7">_xlfn.POISSON.DIST(A13,20,FALSE)</f>
+        <v>1.0575102760627515E-2</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>5.7665039062500008E-9</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>9.1603661592579252E-2</v>
+      </c>
+      <c r="Y13">
+        <f>SUM(X8:X13)</f>
+        <v>0.19123606207962529</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>Y13*100</f>
+        <v>19.123606207962528</v>
+      </c>
+      <c r="AB13">
+        <v>11</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>7.2190206422934985E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="7"/>
+        <v>1.7625171267712545E-2</v>
+      </c>
+      <c r="Y14">
+        <f>1-Y13</f>
+        <v>0.80876393792037471</v>
+      </c>
+      <c r="AB14">
+        <v>12</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>4.8126804281956682E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="7"/>
+        <v>2.7115648104173135E-2</v>
+      </c>
+      <c r="AB15">
+        <v>13</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>2.961649494274254E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="7"/>
+        <v>3.8736640148818745E-2</v>
+      </c>
+      <c r="W16">
+        <v>20</v>
+      </c>
+      <c r="X16">
+        <f>_xlfn.POISSON.DIST(W16,8,FALSE)</f>
+        <v>1.589714984002141E-4</v>
+      </c>
+      <c r="AB16">
+        <v>14</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>1.6923711395852893E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="7"/>
+        <v>5.1648853531758354E-2</v>
+      </c>
+      <c r="W17">
+        <v>21</v>
+      </c>
+      <c r="X17">
+        <f t="shared" ref="X17:X25" si="8">_xlfn.POISSON.DIST(W17,8,FALSE)</f>
+        <v>6.056057081912934E-5</v>
+      </c>
+      <c r="AB17">
+        <v>15</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>9.0259794111215482E-3</v>
+      </c>
+      <c r="AD17">
+        <f>SUM(AC2:AC17)</f>
+        <v>0.99176898901315524</v>
+      </c>
+      <c r="AE17">
+        <f>1-AD17</f>
+        <v>8.2310109868447556E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="7"/>
+        <v>6.4561066914697929E-2</v>
+      </c>
+      <c r="W18">
+        <v>22</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="8"/>
+        <v>2.2022025752410641E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>7.595419637023286E-2</v>
+      </c>
+      <c r="D19">
+        <f>SUM(C2:C19)</f>
+        <v>0.29702839792467378</v>
+      </c>
+      <c r="E19" s="30">
+        <f>D19*100</f>
+        <v>29.70283979246738</v>
+      </c>
+      <c r="W19">
+        <v>23</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="8"/>
+        <v>7.659835044316745E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="7"/>
+        <v>8.4393551522480972E-2</v>
+      </c>
+      <c r="W20">
+        <v>24</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="8"/>
+        <v>2.5532783481055784E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="7"/>
+        <v>8.8835317392085208E-2</v>
+      </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="8"/>
+        <v>8.1704907139378603E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f>_xlfn.POISSON.DIST(A22,20,FALSE)</f>
+        <v>8.8835317392085222E-2</v>
+      </c>
+      <c r="D22">
+        <f>SUM(C2:C22)</f>
+        <v>0.55909258423132524</v>
+      </c>
+      <c r="W22">
+        <v>26</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="8"/>
+        <v>2.513997142750107E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>1-D22</f>
+        <v>0.44090741576867476</v>
+      </c>
+      <c r="W23">
+        <v>27</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="8"/>
+        <v>7.4488804229632912E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D24" s="30">
+        <f>D23*100</f>
+        <v>44.090741576867472</v>
+      </c>
+      <c r="W24">
+        <v>28</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="8"/>
+        <v>2.1282515494180777E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <f>_xlfn.POISSON.DIST(A25,40,FALSE)</f>
+        <v>1.9199765904692393E-4</v>
+      </c>
+      <c r="D25">
+        <f>1-C25</f>
+        <v>0.99980800234095313</v>
+      </c>
+      <c r="W25">
+        <v>29</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="8"/>
+        <v>5.8710387570153908E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <f>_xlfn.POISSON.DIST(A26,40,FALSE)</f>
+        <v>6.2947039423592199E-2</v>
+      </c>
+      <c r="W26">
+        <v>30</v>
+      </c>
+      <c r="X26">
+        <f>_xlfn.POISSON.DIST(W26,8,FALSE)</f>
+        <v>1.5656103352041052E-9</v>
+      </c>
+      <c r="Y26">
+        <f>SUM(X17:X25)</f>
+        <v>9.3965801108111948E-5</v>
+      </c>
+      <c r="Z26" s="30">
+        <f>Y26*100</f>
+        <v>9.3965801108111952E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>1-C26</f>
+        <v>0.93705296057640775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J14"/>
   <sheetViews>
@@ -2300,11 +4273,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -2585,12 +4558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="J3" sqref="J3:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,11 +4583,11 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
@@ -2692,15 +4665,15 @@
         <v>1.8002193147830754E-2</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F8" si="1">_xlfn.POISSON.DIST(K7,$G$2,0)</f>
+        <f>_xlfn.POISSON.DIST(K7,$G$2,0)</f>
         <v>9.5606808886898584E-2</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6:G11" si="2">_xlfn.POISSON.DIST(J5,$G$2,0)</f>
+        <f t="shared" ref="G6:G11" si="1">_xlfn.POISSON.DIST(J5,$G$2,0)</f>
         <v>4.5885348075273872E-6</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" ref="H6:H13" si="3">_xlfn.POISSON.DIST(J5,$G$2,0)</f>
+        <f t="shared" ref="H6:H13" si="2">_xlfn.POISSON.DIST(J5,$G$2,0)</f>
         <v>4.5885348075273872E-6</v>
       </c>
       <c r="I6" s="4"/>
@@ -2724,15 +4697,15 @@
         <v>0.8815355884709849</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F7:F8" si="3">_xlfn.POISSON.DIST(K8,$G$2,0)</f>
         <v>0.10243586666453419</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4414011056455447E-5</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
-        <v>3.4414011056455447E-5</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="3"/>
         <v>3.4414011056455447E-5</v>
       </c>
       <c r="I7" s="4"/>
@@ -2745,15 +4718,15 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10243586666453419</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7207005528227688E-4</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
-        <v>1.7207005528227688E-4</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="3"/>
         <v>1.7207005528227688E-4</v>
       </c>
       <c r="I8" s="4"/>
@@ -2767,11 +4740,11 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F9" s="4"/>
       <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4526270730853874E-4</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
-        <v>6.4526270730853874E-4</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="3"/>
         <v>6.4526270730853874E-4</v>
       </c>
       <c r="I9" s="4"/>
@@ -2785,11 +4758,11 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F10" s="4"/>
       <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9357881219256175E-3</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="2"/>
-        <v>1.9357881219256175E-3</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="3"/>
         <v>1.9357881219256175E-3</v>
       </c>
       <c r="I10" s="4"/>
@@ -2801,11 +4774,11 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F11" s="4"/>
       <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.839470304814038E-3</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="2"/>
-        <v>4.839470304814038E-3</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="3"/>
         <v>4.839470304814038E-3</v>
       </c>
       <c r="I11" s="4"/>
@@ -2820,7 +4793,7 @@
         <v>1.0370293510315797E-2</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0370293510315797E-2</v>
       </c>
       <c r="I12" s="4"/>
@@ -2832,7 +4805,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9444300331842138E-2</v>
       </c>
       <c r="I13" s="4"/>
@@ -2908,169 +4881,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:L9"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4">
-        <v>30</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <f>E6</f>
-        <v>0.18703139874544128</v>
-      </c>
-      <c r="D5" s="29">
-        <f>C5</f>
-        <v>0.18703139874544128</v>
-      </c>
-      <c r="E5">
-        <f>_xlfn.NORM.DIST(34,G2,I2,1)</f>
-        <v>0.81296860125455872</v>
-      </c>
-      <c r="F5">
-        <f>_xlfn.NORM.DIST(32,G2,I2,1)</f>
-        <v>0.67163935671811481</v>
-      </c>
-      <c r="G5" s="3">
-        <f>_xlfn.NORM.DIST(26.8,G2,I2,1)</f>
-        <v>0.23850769258813076</v>
-      </c>
-      <c r="H5" s="3">
-        <f>NORMINV(0.22,G2,I2)</f>
-        <v>26.525130536150918</v>
-      </c>
-      <c r="I5" s="3">
-        <f>NORMINV(0.35,G2,I2)</f>
-        <v>28.266057901165944</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15">
-        <f>F5</f>
-        <v>0.67163935671811481</v>
-      </c>
-      <c r="D6" s="29">
-        <f>C6</f>
-        <v>0.67163935671811481</v>
-      </c>
-      <c r="E6" s="9">
-        <f>1-E5</f>
-        <v>0.18703139874544128</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15">
-        <f>G5</f>
-        <v>0.23850769258813076</v>
-      </c>
-      <c r="D7" s="29">
-        <f>C7</f>
-        <v>0.23850769258813076</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8">
-        <f>H5</f>
-        <v>26.525130536150918</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
-        <f>I5</f>
-        <v>28.266057901165944</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>